--- a/sofaplayer/La_Liga/Levante UD_stats.xlsx
+++ b/sofaplayer/La_Liga/Levante UD_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>1393673</v>
       </c>
       <c r="E2" t="n">
-        <v>6.76</v>
+        <v>6.7333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
         <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>1494</v>
+        <v>1515</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>7.3002</v>
       </c>
       <c r="L2" t="n">
-        <v>249</v>
+        <v>252.5</v>
       </c>
       <c r="M2" t="n">
         <v>40</v>
@@ -1101,10 +1101,10 @@
         <v>3</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.55602447</v>
+        <v>1.557463</v>
       </c>
       <c r="AB2" t="n">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="AC2" t="n">
         <v>3</v>
@@ -1113,22 +1113,22 @@
         <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AF2" t="n">
-        <v>70</v>
+        <v>69.67213114754099</v>
       </c>
       <c r="AG2" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AH2" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AI2" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
@@ -1149,10 +1149,10 @@
         <v>27</v>
       </c>
       <c r="AQ2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR2" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AS2" t="n">
         <v>3</v>
@@ -1179,25 +1179,25 @@
         <v>38.461538461538</v>
       </c>
       <c r="BA2" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BB2" t="n">
-        <v>44.497607655502</v>
+        <v>43.720930232558</v>
       </c>
       <c r="BC2" t="n">
         <v>68</v>
       </c>
       <c r="BD2" t="n">
-        <v>50.37037037037</v>
+        <v>49.63503649635</v>
       </c>
       <c r="BE2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BF2" t="n">
-        <v>33.783783783784</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BG2" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="BH2" t="n">
         <v>24</v>
@@ -1221,22 +1221,22 @@
         <v>2</v>
       </c>
       <c r="BO2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>135.2</v>
+        <v>141.4</v>
       </c>
       <c r="BR2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS2" t="n">
         <v>9</v>
       </c>
       <c r="BT2" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>8</v>
       </c>
       <c r="CB2" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CC2" t="n">
         <v>13</v>
@@ -1287,7 +1287,7 @@
         <v>22</v>
       </c>
       <c r="CK2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CL2" t="n">
         <v>0</v>
@@ -1317,10 +1317,10 @@
         <v>10</v>
       </c>
       <c r="CU2" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="CV2" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="DG2" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>1014042</v>
       </c>
       <c r="E4" t="n">
-        <v>6.8684210526316</v>
+        <v>6.855</v>
       </c>
       <c r="F4" t="n">
+        <v>20</v>
+      </c>
+      <c r="G4" t="n">
         <v>19</v>
       </c>
-      <c r="G4" t="n">
-        <v>18</v>
-      </c>
       <c r="H4" t="n">
-        <v>1478</v>
+        <v>1547</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>5.4738</v>
+        <v>5.7391</v>
       </c>
       <c r="L4" t="n">
-        <v>369.5</v>
+        <v>386.75</v>
       </c>
       <c r="M4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" t="n">
         <v>10</v>
       </c>
-      <c r="O4" t="n">
-        <v>9</v>
-      </c>
       <c r="P4" t="n">
-        <v>11.111111111111</v>
+        <v>10.526315789474</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.1169958</v>
+        <v>1.12280247</v>
       </c>
       <c r="AB4" t="n">
-        <v>702</v>
+        <v>721</v>
       </c>
       <c r="AC4" t="n">
         <v>2</v>
@@ -1825,22 +1825,22 @@
         <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="AF4" t="n">
-        <v>73.760932944606</v>
+        <v>73.94957983193299</v>
       </c>
       <c r="AG4" t="n">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="AH4" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AI4" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AJ4" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="n">
         <v>7</v>
@@ -1864,7 +1864,7 @@
         <v>10</v>
       </c>
       <c r="AR4" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AS4" t="n">
         <v>11</v>
@@ -1891,28 +1891,28 @@
         <v>54.545454545455</v>
       </c>
       <c r="BA4" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BB4" t="n">
-        <v>49.166666666667</v>
+        <v>48.571428571429</v>
       </c>
       <c r="BC4" t="n">
         <v>94</v>
       </c>
       <c r="BD4" t="n">
-        <v>50</v>
+        <v>49.473684210526</v>
       </c>
       <c r="BE4" t="n">
+        <v>25</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>45.454545454545</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>242</v>
+      </c>
+      <c r="BH4" t="n">
         <v>24</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>46.153846153846</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>237</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>23</v>
       </c>
       <c r="BI4" t="n">
         <v>50</v>
@@ -1933,28 +1933,28 @@
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>130.5</v>
+        <v>137.1</v>
       </c>
       <c r="BR4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS4" t="n">
         <v>5</v>
       </c>
       <c r="BT4" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -1966,13 +1966,13 @@
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CA4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CB4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="CC4" t="n">
         <v>10</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CK4" t="n">
         <v>3</v>
@@ -2029,10 +2029,10 @@
         <v>11</v>
       </c>
       <c r="CU4" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="CV4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CW4" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="DG4" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>1649918</v>
       </c>
       <c r="E5" t="n">
-        <v>6.63</v>
+        <v>6.6</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2121,82 +2121,82 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3665</v>
+        <v>0.4179</v>
       </c>
       <c r="L5" t="n">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.01514778</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>108</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
         <v>25</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.01128885</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>97</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>23</v>
-      </c>
       <c r="AF5" t="n">
-        <v>54.761904761905</v>
+        <v>54.347826086957</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AH5" t="n">
         <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
@@ -2214,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS5" t="n">
         <v>3</v>
@@ -2244,31 +2244,31 @@
         <v>3</v>
       </c>
       <c r="AZ5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BB5" t="n">
-        <v>48.979591836735</v>
+        <v>47.368421052632</v>
       </c>
       <c r="BC5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD5" t="n">
-        <v>51.851851851852</v>
+        <v>46.875</v>
       </c>
       <c r="BE5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BF5" t="n">
-        <v>45.454545454545</v>
+        <v>48</v>
       </c>
       <c r="BG5" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="BH5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI5" t="n">
         <v>9</v>
@@ -2289,46 +2289,46 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>11</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>21</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
         <v>5</v>
       </c>
-      <c r="BP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>10</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>19</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>4</v>
-      </c>
       <c r="CA5" t="n">
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC5" t="n">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>5</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL5" t="n">
         <v>0</v>
@@ -2379,16 +2379,16 @@
         <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CT5" t="n">
         <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="CV5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="DA5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB5" t="n">
-        <v>50</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>12</v>
       </c>
       <c r="DG5" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>1649919</v>
       </c>
       <c r="E6" t="n">
-        <v>6.4333333333333</v>
+        <v>6.4428571428571</v>
       </c>
       <c r="F6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" t="n">
         <v>6</v>
       </c>
-      <c r="G6" t="n">
-        <v>5</v>
-      </c>
       <c r="H6" t="n">
-        <v>417</v>
+        <v>507</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2477,13 +2477,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2525</v>
+        <v>0.3236</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
@@ -2525,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.12644049</v>
+        <v>0.14614539</v>
       </c>
       <c r="AB6" t="n">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="AC6" t="n">
         <v>1</v>
@@ -2537,28 +2537,28 @@
         <v>2</v>
       </c>
       <c r="AE6" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>68.421052631579</v>
+        <v>69.14893617021301</v>
       </c>
       <c r="AG6" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AK6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL6" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -2570,13 +2570,13 @@
         <v>3</v>
       </c>
       <c r="AP6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
         <v>3</v>
@@ -2597,100 +2597,100 @@
         <v>0</v>
       </c>
       <c r="AY6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ6" t="n">
-        <v>42.857142857143</v>
+        <v>46.666666666667</v>
       </c>
       <c r="BA6" t="n">
+        <v>30</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>45.454545454545</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>27</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF6" t="n">
         <v>25</v>
       </c>
-      <c r="BB6" t="n">
-        <v>43.859649122807</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>23</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>48.936170212766</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>20</v>
-      </c>
       <c r="BG6" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="BH6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="BR6" t="n">
         <v>7</v>
       </c>
-      <c r="BI6" t="n">
-        <v>10</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO6" t="n">
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>29</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>9</v>
+      </c>
+      <c r="CC6" t="n">
         <v>7</v>
       </c>
-      <c r="BP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>6</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>24</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>3</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>7</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>5</v>
-      </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE6" t="n">
         <v>0</v>
@@ -2708,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CK6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL6" t="n">
         <v>0</v>
@@ -2735,16 +2735,16 @@
         <v>2</v>
       </c>
       <c r="CS6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CT6" t="n">
         <v>3</v>
       </c>
       <c r="CU6" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="CV6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2756,13 +2756,13 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DA6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DB6" t="n">
-        <v>57.142857142857</v>
+        <v>55.555555555556</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="DG6" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>1869106</v>
       </c>
       <c r="E7" t="n">
-        <v>6.4333333333333</v>
+        <v>6.45</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2881,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01590827</v>
+        <v>0.01869975</v>
       </c>
       <c r="AB7" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -2893,22 +2893,22 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AF7" t="n">
-        <v>56.25</v>
+        <v>69.565217391304</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
@@ -2956,28 +2956,28 @@
         <v>2</v>
       </c>
       <c r="AZ7" t="n">
-        <v>33.333333333333</v>
+        <v>28.571428571429</v>
       </c>
       <c r="BA7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB7" t="n">
-        <v>40</v>
+        <v>38.461538461538</v>
       </c>
       <c r="BC7" t="n">
         <v>4</v>
       </c>
       <c r="BD7" t="n">
-        <v>40</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BE7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BG7" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BH7" t="n">
         <v>1</v>
@@ -3001,16 +3001,16 @@
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>19.3</v>
+        <v>25.8</v>
       </c>
       <c r="BR7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS7" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="CB7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC7" t="n">
         <v>0</v>
@@ -3067,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="CK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL7" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="CS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CT7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CU7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CV7" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DG7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>1083832</v>
       </c>
       <c r="E8" t="n">
-        <v>6.85</v>
+        <v>6.8352941176471</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>1027</v>
+        <v>1117</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0.2753</v>
       </c>
       <c r="L8" t="n">
-        <v>1027</v>
+        <v>1117</v>
       </c>
       <c r="M8" t="n">
         <v>7</v>
@@ -3237,10 +3237,10 @@
         <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.41188267</v>
+        <v>0.42005635</v>
       </c>
       <c r="AB8" t="n">
-        <v>669</v>
+        <v>724</v>
       </c>
       <c r="AC8" t="n">
         <v>1</v>
@@ -3249,28 +3249,28 @@
         <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="AF8" t="n">
-        <v>83.76753507014</v>
+        <v>84.786641929499</v>
       </c>
       <c r="AG8" t="n">
-        <v>499</v>
+        <v>539</v>
       </c>
       <c r="AH8" t="n">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="AI8" t="n">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="AJ8" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>52.5</v>
+        <v>54.761904761905</v>
       </c>
       <c r="AM8" t="n">
         <v>2</v>
@@ -3279,22 +3279,22 @@
         <v>50</v>
       </c>
       <c r="AO8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
       </c>
       <c r="AR8" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AS8" t="n">
         <v>9</v>
       </c>
       <c r="AT8" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AU8" t="n">
         <v>2</v>
@@ -3309,37 +3309,37 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>33.333333333333</v>
+        <v>38.461538461538</v>
       </c>
       <c r="BA8" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="BB8" t="n">
-        <v>52.985074626866</v>
+        <v>53.146853146853</v>
       </c>
       <c r="BC8" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BD8" t="n">
         <v>50</v>
       </c>
       <c r="BE8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BF8" t="n">
-        <v>58.695652173913</v>
+        <v>59.183673469388</v>
       </c>
       <c r="BG8" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="BH8" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI8" t="n">
         <v>16</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>15</v>
       </c>
       <c r="BJ8" t="n">
         <v>2</v>
@@ -3348,7 +3348,7 @@
         <v>4</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM8" t="n">
         <v>0</v>
@@ -3357,22 +3357,22 @@
         <v>2</v>
       </c>
       <c r="BO8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>109.6</v>
+        <v>116.2</v>
       </c>
       <c r="BR8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS8" t="n">
         <v>2</v>
       </c>
       <c r="BT8" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3396,13 +3396,13 @@
         <v>6</v>
       </c>
       <c r="CB8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CC8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="CD8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CK8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL8" t="n">
         <v>0</v>
@@ -3447,16 +3447,16 @@
         <v>3</v>
       </c>
       <c r="CS8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CT8" t="n">
         <v>4</v>
       </c>
       <c r="CU8" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="CV8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CW8" t="n">
         <v>0</v>
@@ -3468,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="DA8" t="n">
         <v>17</v>
       </c>
       <c r="DB8" t="n">
-        <v>65.384615384615</v>
+        <v>62.962962962963</v>
       </c>
       <c r="DC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD8" t="n">
         <v>0</v>
@@ -3486,16 +3486,16 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="DG8" t="n">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
       </c>
       <c r="DI8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DJ8" t="n">
         <v>2266163</v>
@@ -3527,16 +3527,16 @@
         <v>1010656</v>
       </c>
       <c r="E9" t="n">
-        <v>6.8590909090909</v>
+        <v>6.8565217391304</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" t="n">
-        <v>1579</v>
+        <v>1648</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -3548,7 +3548,7 @@
         <v>1.7735</v>
       </c>
       <c r="L9" t="n">
-        <v>526.33333333333</v>
+        <v>549.33333333333</v>
       </c>
       <c r="M9" t="n">
         <v>23</v>
@@ -3593,49 +3593,49 @@
         <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.65288298</v>
+        <v>3.66739288</v>
       </c>
       <c r="AB9" t="n">
-        <v>853</v>
+        <v>885</v>
       </c>
       <c r="AC9" t="n">
         <v>6</v>
       </c>
       <c r="AD9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="AF9" t="n">
-        <v>80.406654343808</v>
+        <v>79.893238434164</v>
       </c>
       <c r="AG9" t="n">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="AH9" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AI9" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AJ9" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>66.666666666667</v>
+        <v>70.37037037037</v>
       </c>
       <c r="AM9" t="n">
         <v>8</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>18.604651162791</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
@@ -3644,13 +3644,13 @@
         <v>10</v>
       </c>
       <c r="AR9" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AS9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
         <v>10</v>
@@ -3665,22 +3665,22 @@
         <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ9" t="n">
-        <v>33.333333333333</v>
+        <v>34.782608695652</v>
       </c>
       <c r="BA9" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="BB9" t="n">
-        <v>42.222222222222</v>
+        <v>42.780748663102</v>
       </c>
       <c r="BC9" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="BD9" t="n">
-        <v>44.242424242424</v>
+        <v>44.767441860465</v>
       </c>
       <c r="BE9" t="n">
         <v>3</v>
@@ -3689,13 +3689,13 @@
         <v>20</v>
       </c>
       <c r="BG9" t="n">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="BH9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BI9" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BJ9" t="n">
         <v>1</v>
@@ -3713,22 +3713,22 @@
         <v>1</v>
       </c>
       <c r="BO9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>150.9</v>
+        <v>157.7</v>
       </c>
       <c r="BR9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS9" t="n">
         <v>4</v>
       </c>
       <c r="BT9" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>11</v>
       </c>
       <c r="CB9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CC9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="CD9" t="n">
         <v>21</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CK9" t="n">
         <v>4</v>
@@ -3800,16 +3800,16 @@
         <v>25</v>
       </c>
       <c r="CR9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CS9" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CT9" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="CU9" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="CV9" t="n">
         <v>12</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="DA9" t="n">
         <v>11</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="DG9" t="n">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tai Abed Kassus</t>
+          <t>Tai Abed</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -4235,16 +4235,16 @@
         <v>992331</v>
       </c>
       <c r="E11" t="n">
-        <v>6.6727272727273</v>
+        <v>6.6416666666667</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>353</v>
+        <v>422</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>1.5196</v>
       </c>
       <c r="L11" t="n">
-        <v>176.5</v>
+        <v>211</v>
       </c>
       <c r="M11" t="n">
         <v>9</v>
@@ -4301,10 +4301,10 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.42179296</v>
+        <v>0.42457314</v>
       </c>
       <c r="AB11" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="AC11" t="n">
         <v>1</v>
@@ -4313,22 +4313,22 @@
         <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AF11" t="n">
-        <v>64.51612903225799</v>
+        <v>65.04854368932</v>
       </c>
       <c r="AG11" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AJ11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
@@ -4340,19 +4340,19 @@
         <v>1</v>
       </c>
       <c r="AN11" t="n">
-        <v>25</v>
+        <v>16.666666666667</v>
       </c>
       <c r="AO11" t="n">
         <v>7</v>
       </c>
       <c r="AP11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>3</v>
       </c>
-      <c r="AQ11" t="n">
-        <v>2</v>
-      </c>
       <c r="AR11" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
@@ -4376,19 +4376,19 @@
         <v>3</v>
       </c>
       <c r="AZ11" t="n">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="BA11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB11" t="n">
-        <v>34.375</v>
+        <v>34.285714285714</v>
       </c>
       <c r="BC11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD11" t="n">
-        <v>42.857142857143</v>
+        <v>41.666666666667</v>
       </c>
       <c r="BE11" t="n">
         <v>2</v>
@@ -4397,7 +4397,7 @@
         <v>18.181818181818</v>
       </c>
       <c r="BG11" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="BH11" t="n">
         <v>4</v>
@@ -4421,22 +4421,22 @@
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>73.40000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="BR11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS11" t="n">
         <v>2</v>
       </c>
       <c r="BT11" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4463,28 +4463,28 @@
         <v>3</v>
       </c>
       <c r="CC11" t="n">
+        <v>7</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
         <v>6</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>5</v>
       </c>
       <c r="CK11" t="n">
         <v>0</v>
@@ -4511,13 +4511,13 @@
         <v>5</v>
       </c>
       <c r="CS11" t="n">
+        <v>8</v>
+      </c>
+      <c r="CT11" t="n">
         <v>6</v>
       </c>
-      <c r="CT11" t="n">
-        <v>4</v>
-      </c>
       <c r="CU11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CV11" t="n">
         <v>9</v>
@@ -4535,7 +4535,7 @@
         <v>9</v>
       </c>
       <c r="DA11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DB11" t="n">
         <v>100</v>
@@ -4550,10 +4550,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="DG11" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -5303,16 +5303,16 @@
         <v>927066</v>
       </c>
       <c r="E14" t="n">
-        <v>6.8375</v>
+        <v>6.8529411764706</v>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>1097</v>
+        <v>1175</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -5324,7 +5324,7 @@
         <v>1.7284</v>
       </c>
       <c r="L14" t="n">
-        <v>1097</v>
+        <v>1175</v>
       </c>
       <c r="M14" t="n">
         <v>23</v>
@@ -5369,58 +5369,58 @@
         <v>2</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.93453411</v>
+        <v>2.18528311</v>
       </c>
       <c r="AB14" t="n">
-        <v>592</v>
+        <v>626</v>
       </c>
       <c r="AC14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="AF14" t="n">
-        <v>76.515151515152</v>
+        <v>76.570048309179</v>
       </c>
       <c r="AG14" t="n">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="AH14" t="n">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AI14" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AJ14" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AK14" t="n">
         <v>25</v>
       </c>
       <c r="AL14" t="n">
-        <v>40.983606557377</v>
+        <v>40.322580645161</v>
       </c>
       <c r="AM14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AN14" t="n">
-        <v>40</v>
+        <v>39.024390243902</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP14" t="n">
         <v>12</v>
       </c>
       <c r="AQ14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR14" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AS14" t="n">
         <v>8</v>
@@ -5441,22 +5441,22 @@
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>50</v>
+        <v>52.173913043478</v>
       </c>
       <c r="BA14" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="BB14" t="n">
-        <v>40</v>
+        <v>42.268041237113</v>
       </c>
       <c r="BC14" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="BD14" t="n">
-        <v>35.526315789474</v>
+        <v>38.55421686747</v>
       </c>
       <c r="BE14" t="n">
         <v>9</v>
@@ -5465,13 +5465,13 @@
         <v>64.28571428571399</v>
       </c>
       <c r="BG14" t="n">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="BH14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BI14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BJ14" t="n">
         <v>3</v>
@@ -5489,22 +5489,22 @@
         <v>1</v>
       </c>
       <c r="BO14" t="n">
+        <v>18</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="BR14" t="n">
         <v>17</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>109.4</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>16</v>
       </c>
       <c r="BS14" t="n">
         <v>3</v>
       </c>
       <c r="BT14" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5531,7 +5531,7 @@
         <v>13</v>
       </c>
       <c r="CC14" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="CD14" t="n">
         <v>23</v>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CK14" t="n">
         <v>3</v>
@@ -5576,16 +5576,16 @@
         <v>0</v>
       </c>
       <c r="CR14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CS14" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="CT14" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="CU14" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="CV14" t="n">
         <v>5</v>
@@ -5600,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="DA14" t="n">
         <v>6</v>
@@ -5618,10 +5618,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="DG14" t="n">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -5652,45 +5652,47 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Unai Vencedor</t>
+          <t>Jon Ander Olasagasti</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>966802</v>
+        <v>1010383</v>
       </c>
       <c r="E15" t="n">
-        <v>6.6692307692308</v>
+        <v>6.7263157894737</v>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>769</v>
+        <v>571</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2253</v>
+      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>14.285714285714</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -5705,13 +5707,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -5720,70 +5722,70 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.38674225</v>
+        <v>0.89200199</v>
       </c>
       <c r="AB15" t="n">
-        <v>496</v>
+        <v>389</v>
       </c>
       <c r="AC15" t="n">
         <v>3</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="AF15" t="n">
-        <v>81.62729658792701</v>
+        <v>77.566539923954</v>
       </c>
       <c r="AG15" t="n">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="AH15" t="n">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="AI15" t="n">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="AJ15" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AL15" t="n">
-        <v>56.666666666667</v>
+        <v>41.935483870968</v>
       </c>
       <c r="AM15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN15" t="n">
-        <v>38.095238095238</v>
+        <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR15" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AS15" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -5798,31 +5800,31 @@
         <v>3</v>
       </c>
       <c r="AZ15" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BA15" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="BB15" t="n">
-        <v>41.747572815534</v>
+        <v>47.142857142857</v>
       </c>
       <c r="BC15" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="BD15" t="n">
-        <v>40.506329113924</v>
+        <v>41.071428571429</v>
       </c>
       <c r="BE15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BF15" t="n">
-        <v>45.833333333333</v>
+        <v>71.428571428571</v>
       </c>
       <c r="BG15" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BH15" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="BI15" t="n">
         <v>8</v>
@@ -5834,7 +5836,7 @@
         <v>3</v>
       </c>
       <c r="BL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
         <v>0</v>
@@ -5843,28 +5845,28 @@
         <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>86.7</v>
+        <v>127.8</v>
       </c>
       <c r="BR15" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BS15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BT15" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="BU15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -5876,19 +5878,19 @@
         <v>0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CB15" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="CC15" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="CD15" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5906,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CK15" t="n">
         <v>2</v>
@@ -5930,19 +5932,19 @@
         <v>0</v>
       </c>
       <c r="CR15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CS15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CT15" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="CU15" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="CV15" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="CW15" t="n">
         <v>0</v>
@@ -5954,13 +5956,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="DA15" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="DB15" t="n">
-        <v>61.904761904762</v>
+        <v>41.666666666667</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5972,10 +5974,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="DG15" t="n">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -5984,7 +5986,7 @@
         <v>5</v>
       </c>
       <c r="DJ15" t="n">
-        <v>2289861</v>
+        <v>2187644</v>
       </c>
       <c r="DK15" t="inlineStr">
         <is>
@@ -6006,179 +6008,177 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Jon Ander Olasagasti</t>
+          <t>Unai Vencedor</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1010383</v>
+        <v>966802</v>
       </c>
       <c r="E16" t="n">
-        <v>6.7555555555556</v>
+        <v>6.6928571428571</v>
       </c>
       <c r="F16" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" t="n">
+        <v>11</v>
+      </c>
+      <c r="H16" t="n">
+        <v>781</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1.50719025</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>511</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>322</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>81.725888324873</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>394</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>155</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>167</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>84</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>39</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>59.090909090909</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>38.095238095238</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS16" t="n">
         <v>18</v>
       </c>
-      <c r="G16" t="n">
+      <c r="AT16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
         <v>4</v>
       </c>
-      <c r="H16" t="n">
-        <v>550</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2253</v>
-      </c>
-      <c r="L16" t="n">
-        <v>550</v>
-      </c>
-      <c r="M16" t="n">
-        <v>7</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>14.285714285714</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.89163158</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>378</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>202</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>78.599221789883</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>257</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>72</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>63</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>41.935483870968</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>29.166666666667</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS16" t="n">
+      <c r="AZ16" t="n">
+        <v>57.142857142857</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>44</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>42.307692307692</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>33</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="BE16" t="n">
         <v>11</v>
       </c>
-      <c r="AT16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>32</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>49.230769230769</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>22</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>41.509433962264</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>10</v>
-      </c>
       <c r="BF16" t="n">
-        <v>83.333333333333</v>
+        <v>45.833333333333</v>
       </c>
       <c r="BG16" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="BH16" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="BI16" t="n">
         <v>8</v>
@@ -6190,7 +6190,7 @@
         <v>3</v>
       </c>
       <c r="BL16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM16" t="n">
         <v>0</v>
@@ -6199,106 +6199,106 @@
         <v>0</v>
       </c>
       <c r="BO16" t="n">
+        <v>15</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>14</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>72</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>48</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>25</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
         <v>12</v>
       </c>
-      <c r="BP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>121.6</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>18</v>
-      </c>
-      <c r="BS16" t="n">
+      <c r="CK16" t="n">
         <v>3</v>
       </c>
-      <c r="BT16" t="n">
-        <v>55</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>6</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>8</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>29</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>16</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ16" t="n">
+      <c r="CL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR16" t="n">
         <v>11</v>
       </c>
-      <c r="CK16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR16" t="n">
+      <c r="CS16" t="n">
         <v>7</v>
       </c>
-      <c r="CS16" t="n">
-        <v>4</v>
-      </c>
       <c r="CT16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="CU16" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="CV16" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
@@ -6310,13 +6310,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="DA16" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="DB16" t="n">
-        <v>41.666666666667</v>
+        <v>61.904761904762</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6328,10 +6328,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="DG16" t="n">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -6340,7 +6340,7 @@
         <v>5</v>
       </c>
       <c r="DJ16" t="n">
-        <v>2187644</v>
+        <v>2289861</v>
       </c>
       <c r="DK16" t="inlineStr">
         <is>
@@ -7437,16 +7437,16 @@
         <v>1496360</v>
       </c>
       <c r="E20" t="n">
-        <v>6.8214285714286</v>
+        <v>6.8</v>
       </c>
       <c r="F20" t="n">
+        <v>15</v>
+      </c>
+      <c r="G20" t="n">
         <v>14</v>
       </c>
-      <c r="G20" t="n">
-        <v>13</v>
-      </c>
       <c r="H20" t="n">
-        <v>1076</v>
+        <v>1166</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7455,19 +7455,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3948</v>
+        <v>0.5641</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -7503,10 +7503,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.17136643</v>
+        <v>0.18086372</v>
       </c>
       <c r="AB20" t="n">
-        <v>631</v>
+        <v>694</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7515,28 +7515,28 @@
         <v>2</v>
       </c>
       <c r="AE20" t="n">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="AF20" t="n">
-        <v>85.652173913043</v>
+        <v>86.159844054581</v>
       </c>
       <c r="AG20" t="n">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="AH20" t="n">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="AI20" t="n">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="AJ20" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AK20" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>37.735849056604</v>
+        <v>40.350877192982</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -7548,19 +7548,19 @@
         <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AS20" t="n">
         <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AU20" t="n">
         <v>3</v>
@@ -7581,25 +7581,25 @@
         <v>40</v>
       </c>
       <c r="BA20" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="BB20" t="n">
-        <v>57.647058823529</v>
+        <v>59.090909090909</v>
       </c>
       <c r="BC20" t="n">
+        <v>27</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>62.790697674419</v>
+      </c>
+      <c r="BE20" t="n">
         <v>25</v>
       </c>
-      <c r="BD20" t="n">
-        <v>60.975609756098</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>24</v>
-      </c>
       <c r="BF20" t="n">
-        <v>54.545454545455</v>
+        <v>55.555555555556</v>
       </c>
       <c r="BG20" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="BH20" t="n">
         <v>11</v>
@@ -7611,7 +7611,7 @@
         <v>2</v>
       </c>
       <c r="BK20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL20" t="n">
         <v>0</v>
@@ -7623,28 +7623,28 @@
         <v>3</v>
       </c>
       <c r="BO20" t="n">
+        <v>17</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>102</v>
+      </c>
+      <c r="BR20" t="n">
         <v>15</v>
       </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>14</v>
-      </c>
       <c r="BS20" t="n">
         <v>0</v>
       </c>
       <c r="BT20" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
       </c>
       <c r="BV20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW20" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="BZ20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CA20" t="n">
         <v>2</v>
@@ -7665,10 +7665,10 @@
         <v>1</v>
       </c>
       <c r="CC20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CD20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7686,10 +7686,10 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CK20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL20" t="n">
         <v>0</v>
@@ -7716,7 +7716,7 @@
         <v>5</v>
       </c>
       <c r="CT20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU20" t="n">
         <v>36</v>
@@ -7734,13 +7734,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="DA20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DB20" t="n">
-        <v>76.470588235294</v>
+        <v>73.68421052631599</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7752,10 +7752,10 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="DG20" t="n">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="DH20" t="n">
         <v>5</v>
@@ -7793,16 +7793,16 @@
         <v>984789</v>
       </c>
       <c r="E21" t="n">
-        <v>6.5052631578947</v>
+        <v>6.505</v>
       </c>
       <c r="F21" t="n">
+        <v>20</v>
+      </c>
+      <c r="G21" t="n">
         <v>19</v>
       </c>
-      <c r="G21" t="n">
-        <v>18</v>
-      </c>
       <c r="H21" t="n">
-        <v>1637</v>
+        <v>1727</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>0.6256</v>
       </c>
       <c r="L21" t="n">
-        <v>1637</v>
+        <v>1727</v>
       </c>
       <c r="M21" t="n">
         <v>8</v>
@@ -7859,10 +7859,10 @@
         <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.67121661</v>
+        <v>0.7516431099999999</v>
       </c>
       <c r="AB21" t="n">
-        <v>975</v>
+        <v>1043</v>
       </c>
       <c r="AC21" t="n">
         <v>1</v>
@@ -7871,52 +7871,52 @@
         <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="AF21" t="n">
-        <v>80.639097744361</v>
+        <v>80.52173913043499</v>
       </c>
       <c r="AG21" t="n">
-        <v>532</v>
+        <v>575</v>
       </c>
       <c r="AH21" t="n">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="AI21" t="n">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="AJ21" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AK21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL21" t="n">
-        <v>32.692307692308</v>
+        <v>32.142857142857</v>
       </c>
       <c r="AM21" t="n">
         <v>9</v>
       </c>
       <c r="AN21" t="n">
-        <v>20</v>
+        <v>18.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AQ21" t="n">
         <v>5</v>
       </c>
       <c r="AR21" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AS21" t="n">
         <v>19</v>
       </c>
       <c r="AT21" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU21" t="n">
         <v>2</v>
@@ -7937,16 +7937,16 @@
         <v>36.363636363636</v>
       </c>
       <c r="BA21" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="BB21" t="n">
-        <v>53.459119496855</v>
+        <v>54.037267080745</v>
       </c>
       <c r="BC21" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BD21" t="n">
-        <v>54.615384615385</v>
+        <v>55.30303030303</v>
       </c>
       <c r="BE21" t="n">
         <v>14</v>
@@ -7955,7 +7955,7 @@
         <v>48.275862068966</v>
       </c>
       <c r="BG21" t="n">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="BH21" t="n">
         <v>18</v>
@@ -7979,22 +7979,22 @@
         <v>2</v>
       </c>
       <c r="BO21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>123.6</v>
+        <v>130.1</v>
       </c>
       <c r="BR21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS21" t="n">
         <v>2</v>
       </c>
       <c r="BT21" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>8</v>
       </c>
       <c r="CC21" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="CD21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8042,10 +8042,10 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CK21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CL21" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>22</v>
       </c>
       <c r="CT21" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="CU21" t="n">
         <v>74</v>
@@ -8090,13 +8090,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="DA21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="DB21" t="n">
-        <v>66.666666666667</v>
+        <v>68</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8108,10 +8108,10 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="DG21" t="n">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="DH21" t="n">
         <v>0</v>
@@ -8149,31 +8149,31 @@
         <v>997244</v>
       </c>
       <c r="E22" t="n">
-        <v>6.7526315789474</v>
+        <v>6.755</v>
       </c>
       <c r="F22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" t="n">
+        <v>17</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1554</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.8044</v>
+      </c>
+      <c r="L22" t="n">
+        <v>777</v>
+      </c>
+      <c r="M22" t="n">
         <v>19</v>
-      </c>
-      <c r="G22" t="n">
-        <v>16</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1464</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="L22" t="n">
-        <v>732</v>
-      </c>
-      <c r="M22" t="n">
-        <v>16</v>
       </c>
       <c r="N22" t="n">
         <v>4</v>
@@ -8182,7 +8182,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>12.5</v>
+        <v>10.526315789474</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -8215,10 +8215,10 @@
         <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.84655662</v>
+        <v>0.89692752</v>
       </c>
       <c r="AB22" t="n">
-        <v>969</v>
+        <v>1057</v>
       </c>
       <c r="AC22" t="n">
         <v>1</v>
@@ -8227,55 +8227,55 @@
         <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>588</v>
+        <v>640</v>
       </c>
       <c r="AF22" t="n">
-        <v>80.880330123796</v>
+        <v>81.115335868188</v>
       </c>
       <c r="AG22" t="n">
-        <v>727</v>
+        <v>789</v>
       </c>
       <c r="AH22" t="n">
-        <v>405</v>
+        <v>442</v>
       </c>
       <c r="AI22" t="n">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="AJ22" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AK22" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AL22" t="n">
-        <v>46.327683615819</v>
+        <v>46.276595744681</v>
       </c>
       <c r="AM22" t="n">
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>16.666666666667</v>
+        <v>13.333333333333</v>
       </c>
       <c r="AO22" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AP22" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AS22" t="n">
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV22" t="n">
         <v>0</v>
@@ -8293,31 +8293,31 @@
         <v>100</v>
       </c>
       <c r="BA22" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="BB22" t="n">
-        <v>56.25</v>
+        <v>57.692307692308</v>
       </c>
       <c r="BC22" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="BD22" t="n">
-        <v>52.941176470588</v>
+        <v>56.140350877193</v>
       </c>
       <c r="BE22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BF22" t="n">
-        <v>60</v>
+        <v>59.574468085106</v>
       </c>
       <c r="BG22" t="n">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="BH22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BI22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ22" t="n">
         <v>1</v>
@@ -8335,28 +8335,28 @@
         <v>3</v>
       </c>
       <c r="BO22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BP22" t="n">
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>128.3</v>
+        <v>135.1</v>
       </c>
       <c r="BR22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS22" t="n">
         <v>3</v>
       </c>
       <c r="BT22" t="n">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
       </c>
       <c r="BV22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BW22" t="n">
         <v>1</v>
@@ -8365,22 +8365,22 @@
         <v>0</v>
       </c>
       <c r="BY22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BZ22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CA22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CB22" t="n">
         <v>2</v>
       </c>
       <c r="CC22" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="CD22" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="CE22" t="n">
         <v>1</v>
@@ -8398,10 +8398,10 @@
         <v>0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CK22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL22" t="n">
         <v>0</v>
@@ -8428,13 +8428,13 @@
         <v>3</v>
       </c>
       <c r="CT22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="CU22" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CV22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -8446,10 +8446,10 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="DA22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="DB22" t="n">
         <v>50</v>
@@ -8464,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="DG22" t="n">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="DH22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DI22" t="n">
         <v>13</v>
@@ -9573,16 +9573,16 @@
         <v>134029</v>
       </c>
       <c r="E26" t="n">
-        <v>7.36</v>
+        <v>7.2904761904762</v>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H26" t="n">
-        <v>1800</v>
+        <v>1890</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.03470022</v>
+        <v>0.03591697</v>
       </c>
       <c r="AB26" t="n">
-        <v>882</v>
+        <v>917</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
@@ -9649,28 +9649,28 @@
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="AF26" t="n">
-        <v>67.80715396578501</v>
+        <v>68.49112426035499</v>
       </c>
       <c r="AG26" t="n">
-        <v>643</v>
+        <v>676</v>
       </c>
       <c r="AH26" t="n">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="AI26" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK26" t="n">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AL26" t="n">
-        <v>44.505494505495</v>
+        <v>45.263157894737</v>
       </c>
       <c r="AM26" t="n">
         <v>0</v>
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="AR26" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -9733,7 +9733,7 @@
         <v>100</v>
       </c>
       <c r="BG26" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="BH26" t="n">
         <v>0</v>
@@ -9757,22 +9757,22 @@
         <v>4</v>
       </c>
       <c r="BO26" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BP26" t="n">
         <v>1</v>
       </c>
       <c r="BQ26" t="n">
-        <v>147.2</v>
+        <v>153.1</v>
       </c>
       <c r="BR26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS26" t="n">
         <v>0</v>
       </c>
       <c r="BT26" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="BU26" t="n">
         <v>0</v>
@@ -9799,10 +9799,10 @@
         <v>0</v>
       </c>
       <c r="CC26" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="CD26" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="CE26" t="n">
         <v>0</v>
@@ -9820,19 +9820,19 @@
         <v>19</v>
       </c>
       <c r="CJ26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CK26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CL26" t="n">
         <v>7</v>
       </c>
       <c r="CM26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CN26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CO26" t="n">
         <v>20</v>
@@ -9868,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="CZ26" t="n">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="DA26" t="n">
         <v>1</v>
@@ -9886,13 +9886,13 @@
         <v>14</v>
       </c>
       <c r="DF26" t="n">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="DG26" t="n">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="DH26" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="DI26" t="n">
         <v>0</v>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="DL26" t="n">
-        <v>3.0164</v>
+        <v>1.6313</v>
       </c>
     </row>
     <row r="27">
